--- a/Code/Results/Cases/Case_2_132/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_132/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.119447625889279</v>
+        <v>2.669886159284943</v>
       </c>
       <c r="C2">
-        <v>0.9954119907370398</v>
+        <v>0.339145502435855</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02336331767945454</v>
+        <v>0.06909409277560119</v>
       </c>
       <c r="F2">
-        <v>2.115101331177456</v>
+        <v>2.969707982845279</v>
       </c>
       <c r="G2">
-        <v>0.0008042448202894777</v>
+        <v>0.002550694924269734</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.109160751039838</v>
+        <v>1.702634974721065</v>
       </c>
       <c r="J2">
-        <v>0.04965578030113527</v>
+        <v>0.1171450160749998</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3330364437538123</v>
+        <v>0.4373352176423992</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9062536327318398</v>
+        <v>1.875600795357766</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.586104133477022</v>
+        <v>2.545457965338414</v>
       </c>
       <c r="C3">
-        <v>0.8557627379732935</v>
+        <v>0.3026972707380367</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02217129794438888</v>
+        <v>0.0687517779157738</v>
       </c>
       <c r="F3">
-        <v>1.952666259868366</v>
+        <v>2.950025442101591</v>
       </c>
       <c r="G3">
-        <v>0.0008134170387960906</v>
+        <v>0.002556428290683568</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.046905932881103</v>
+        <v>1.699636447176772</v>
       </c>
       <c r="J3">
-        <v>0.0521457014538349</v>
+        <v>0.1184482790675361</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2978354662719624</v>
+        <v>0.4307726991647485</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.963562098375796</v>
+        <v>1.897502744192515</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.264244794445119</v>
+        <v>2.470569751514063</v>
       </c>
       <c r="C4">
-        <v>0.7716611422255824</v>
+        <v>0.2804674503497893</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02146539479648801</v>
+        <v>0.06853787779973564</v>
       </c>
       <c r="F4">
-        <v>1.857369564511174</v>
+        <v>2.939592481797831</v>
       </c>
       <c r="G4">
-        <v>0.0008191952654899601</v>
+        <v>0.002560133084547107</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.011461542757353</v>
+        <v>1.698771679272426</v>
       </c>
       <c r="J4">
-        <v>0.05381103865340364</v>
+        <v>0.1193003671316113</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2765948080296425</v>
+        <v>0.4269370500407206</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.000461743283434</v>
+        <v>1.911642905357031</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.134316086076922</v>
+        <v>2.440430928523369</v>
       </c>
       <c r="C5">
-        <v>0.7377413968326323</v>
+        <v>0.271445244896654</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02118300835672193</v>
+        <v>0.06844975248008667</v>
       </c>
       <c r="F5">
-        <v>1.819554793983855</v>
+        <v>2.935755375093819</v>
       </c>
       <c r="G5">
-        <v>0.0008215886281001077</v>
+        <v>0.002561689369569123</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9976584420927352</v>
+        <v>1.698663941636376</v>
       </c>
       <c r="J5">
-        <v>0.05452175454581365</v>
+        <v>0.1196606056208402</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2680237836818407</v>
+        <v>0.4254227990302297</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.015910267143894</v>
+        <v>1.917578858329783</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.11281092376089</v>
+        <v>2.435449238199681</v>
       </c>
       <c r="C6">
-        <v>0.732128650286711</v>
+        <v>0.2699492983996095</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02113640266039529</v>
+        <v>0.06843506068993532</v>
       </c>
       <c r="F6">
-        <v>1.813334569980682</v>
+        <v>2.935143225421413</v>
       </c>
       <c r="G6">
-        <v>0.0008219884324864682</v>
+        <v>0.002561950605810112</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9954035367086504</v>
+        <v>1.698660804325911</v>
       </c>
       <c r="J6">
-        <v>0.05464164433590746</v>
+        <v>0.1197212073069736</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2666054375911102</v>
+        <v>0.4251743091594022</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.018499822925719</v>
+        <v>1.918575000891707</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.262487771121016</v>
+        <v>2.470161757007816</v>
       </c>
       <c r="C7">
-        <v>0.7712023386790463</v>
+        <v>0.2803456267067475</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02146156664225884</v>
+        <v>0.06853669322588085</v>
       </c>
       <c r="F7">
-        <v>1.856855575912761</v>
+        <v>2.939539056712775</v>
       </c>
       <c r="G7">
-        <v>0.0008192273842581067</v>
+        <v>0.002560153884400435</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.011272868349579</v>
+        <v>1.698769236792657</v>
       </c>
       <c r="J7">
-        <v>0.05382049654194176</v>
+        <v>0.1193051728280174</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2764788846122315</v>
+        <v>0.4269164305884772</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.000668444582246</v>
+        <v>1.911722256790153</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.934271411820134</v>
+        <v>2.626668846991436</v>
       </c>
       <c r="C8">
-        <v>0.9468812958770627</v>
+        <v>0.3265465135016257</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02294610472381331</v>
+        <v>0.06897681924079446</v>
       </c>
       <c r="F8">
-        <v>2.058111460260307</v>
+        <v>2.962577878627471</v>
       </c>
       <c r="G8">
-        <v>0.0008073781770013814</v>
+        <v>0.002552633597004084</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.08708148183684</v>
+        <v>1.701397925572792</v>
       </c>
       <c r="J8">
-        <v>0.05048454188691309</v>
+        <v>0.1175835895918826</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3208160629392154</v>
+        <v>0.4350322919715239</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9256463712906218</v>
+        <v>1.883008692522825</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.305297167530057</v>
+        <v>2.94564744316051</v>
       </c>
       <c r="C9">
-        <v>1.307512319297473</v>
+        <v>0.4183817117385615</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02612941181723194</v>
+        <v>0.06981155157622609</v>
       </c>
       <c r="F9">
-        <v>2.492845267168903</v>
+        <v>3.020920508378495</v>
       </c>
       <c r="G9">
-        <v>0.0007852107286709516</v>
+        <v>0.002539342745531204</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.260730755433272</v>
+        <v>1.714340542354776</v>
       </c>
       <c r="J9">
-        <v>0.04514106082819325</v>
+        <v>0.1146209836763568</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4111737124926549</v>
+        <v>0.4524826425562338</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.793055911935916</v>
+        <v>1.832209537410272</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.359660692967054</v>
+        <v>3.187496178796209</v>
       </c>
       <c r="C10">
-        <v>1.587188300937783</v>
+        <v>0.4866807572074094</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02874220113123904</v>
+        <v>0.07040917988853623</v>
       </c>
       <c r="F10">
-        <v>2.84427268829117</v>
+        <v>3.071894426536431</v>
       </c>
       <c r="G10">
-        <v>0.0007694299449440905</v>
+        <v>0.002530455465181472</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.408148071529098</v>
+        <v>1.728657823457695</v>
       </c>
       <c r="J10">
-        <v>0.04213120860347175</v>
+        <v>0.1126988145636325</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4803503362983008</v>
+        <v>0.4662383686759171</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7059780256963322</v>
+        <v>1.798264960438942</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.853279524866707</v>
+        <v>3.299179155205707</v>
       </c>
       <c r="C11">
-        <v>1.718902862979576</v>
+        <v>0.5179481669991333</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03002021508589925</v>
+        <v>0.07067802078017227</v>
       </c>
       <c r="F11">
-        <v>3.013069686514712</v>
+        <v>3.096863914660076</v>
       </c>
       <c r="G11">
-        <v>0.0007623229145724553</v>
+        <v>0.002526600740376232</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.480719431709687</v>
+        <v>1.736228758892025</v>
       </c>
       <c r="J11">
-        <v>0.04101105700768315</v>
+        <v>0.1118801617174405</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5126089229745645</v>
+        <v>0.4726992095948219</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6689965726076323</v>
+        <v>1.783560425042509</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.042573880402927</v>
+        <v>3.341712076502688</v>
       </c>
       <c r="C12">
-        <v>1.769551328199839</v>
+        <v>0.529817998637327</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03052009142034162</v>
+        <v>0.07077941847285896</v>
       </c>
       <c r="F12">
-        <v>3.07846364157777</v>
+        <v>3.106576765719268</v>
       </c>
       <c r="G12">
-        <v>0.0007596383376273774</v>
+        <v>0.002525167941860531</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.509109735782431</v>
+        <v>1.739248863894943</v>
       </c>
       <c r="J12">
-        <v>0.04062777250168637</v>
+        <v>0.1115782241431091</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.524955377563515</v>
+        <v>0.4751749572812258</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6554092985455071</v>
+        <v>1.778098599643577</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.001694175654109</v>
+        <v>3.332541106062081</v>
       </c>
       <c r="C13">
-        <v>1.758606780862294</v>
+        <v>0.5272602865285876</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03041167127452216</v>
+        <v>0.07075759829080708</v>
       </c>
       <c r="F13">
-        <v>3.064311009545207</v>
+        <v>3.104473458203557</v>
       </c>
       <c r="G13">
-        <v>0.00076021627429812</v>
+        <v>0.002525475326608974</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.502952904540621</v>
+        <v>1.738591602066634</v>
       </c>
       <c r="J13">
-        <v>0.04070841081041721</v>
+        <v>0.1116428921218073</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5222902299792196</v>
+        <v>0.4746404645033806</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6583163502283185</v>
+        <v>1.779270158747885</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.868803104334347</v>
+        <v>3.302673524792681</v>
       </c>
       <c r="C14">
-        <v>1.723053503765925</v>
+        <v>0.5189241067977832</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03006100162060577</v>
+        <v>0.07068637081305562</v>
       </c>
       <c r="F14">
-        <v>3.018418959466658</v>
+        <v>3.09765782951186</v>
       </c>
       <c r="G14">
-        <v>0.0007621019409823801</v>
+        <v>0.002526482325062175</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.483036171135652</v>
+        <v>1.736474149337127</v>
       </c>
       <c r="J14">
-        <v>0.04097867224821883</v>
+        <v>0.1118551591279733</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5136219443465961</v>
+        <v>0.4729023066528981</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6678701455230396</v>
+        <v>1.783108940921146</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.787723922487544</v>
+        <v>3.284410203099355</v>
       </c>
       <c r="C15">
-        <v>1.701380551201623</v>
+        <v>0.5138218360210658</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02984837992557132</v>
+        <v>0.07064268983254474</v>
       </c>
       <c r="F15">
-        <v>2.990506822062883</v>
+        <v>3.093516626860151</v>
       </c>
       <c r="G15">
-        <v>0.0007632577231464133</v>
+        <v>0.002527102639581165</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.470958736663732</v>
+        <v>1.735197124576175</v>
       </c>
       <c r="J15">
-        <v>0.04114970594493172</v>
+        <v>0.1119862311006266</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5083299572141158</v>
+        <v>0.4718414313479968</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6737776386748848</v>
+        <v>1.785474184873856</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.327712631810755</v>
+        <v>3.18023106952171</v>
       </c>
       <c r="C16">
-        <v>1.578681084062339</v>
+        <v>0.4846414324914576</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.02866072881164961</v>
+        <v>0.07039155206869596</v>
       </c>
       <c r="F16">
-        <v>2.833436774816931</v>
+        <v>3.070298565749255</v>
       </c>
       <c r="G16">
-        <v>0.0007698955518151002</v>
+        <v>0.002530711153316976</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.403525854565515</v>
+        <v>1.728184420731779</v>
       </c>
       <c r="J16">
-        <v>0.04220983994889238</v>
+        <v>0.1127534416926075</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4782594796976412</v>
+        <v>0.4658202225956245</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7084509550991811</v>
+        <v>1.79924080801716</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.049333413154898</v>
+        <v>3.116748062477086</v>
       </c>
       <c r="C17">
-        <v>1.504642266803899</v>
+        <v>0.4667916430051378</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02795706064125136</v>
+        <v>0.07023673277131248</v>
       </c>
       <c r="F17">
-        <v>2.739494049301356</v>
+        <v>3.056512171577509</v>
       </c>
       <c r="G17">
-        <v>0.0007739835972324915</v>
+        <v>0.002532972939032973</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.363647359279781</v>
+        <v>1.724154041476027</v>
       </c>
       <c r="J17">
-        <v>0.04292734304370072</v>
+        <v>0.1132384161357542</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4600261006079478</v>
+        <v>0.4621784262900093</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7304214176028623</v>
+        <v>1.80787529327614</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.890508906662603</v>
+        <v>3.080390912804262</v>
       </c>
       <c r="C18">
-        <v>1.462471064716738</v>
+        <v>0.456543470639815</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02756053571512362</v>
+        <v>0.07014739852522123</v>
       </c>
       <c r="F18">
-        <v>2.686288519361995</v>
+        <v>3.048750176967189</v>
       </c>
       <c r="G18">
-        <v>0.00077634192724213</v>
+        <v>0.002534291576238147</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.34122109996288</v>
+        <v>1.721935389229486</v>
       </c>
       <c r="J18">
-        <v>0.04336312398228159</v>
+        <v>0.1135226050625491</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4496119278464192</v>
+        <v>0.4601028999283159</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7433032581156667</v>
+        <v>1.812910963665445</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.836945344470337</v>
+        <v>3.068107854099935</v>
       </c>
       <c r="C19">
-        <v>1.448260186780772</v>
+        <v>0.4530767692308473</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02742760415960666</v>
+        <v>0.07011710146490868</v>
       </c>
       <c r="F19">
-        <v>2.668410847067776</v>
+        <v>3.046150840422143</v>
       </c>
       <c r="G19">
-        <v>0.0007771417208072284</v>
+        <v>0.002534741092222197</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.33371238824661</v>
+        <v>1.721201252505665</v>
       </c>
       <c r="J19">
-        <v>0.04351449653880834</v>
+        <v>0.1136197257379337</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4460979468751987</v>
+        <v>0.4594034514823591</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7477058230917351</v>
+        <v>1.81462785034207</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.078831199505998</v>
+        <v>3.123489718276346</v>
       </c>
       <c r="C20">
-        <v>1.512480129857522</v>
+        <v>0.4686898553793526</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.02803109756575228</v>
+        <v>0.07025324297621172</v>
       </c>
       <c r="F20">
-        <v>2.749407439983912</v>
+        <v>3.057962403995987</v>
       </c>
       <c r="G20">
-        <v>0.0007735477184819806</v>
+        <v>0.002532730335483624</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.367838833991982</v>
+        <v>1.72457277538868</v>
       </c>
       <c r="J20">
-        <v>0.04284853951188339</v>
+        <v>0.1131862466282563</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4619593825891428</v>
+        <v>0.4625641214429521</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7280570050054251</v>
+        <v>1.806948957414427</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.907768936692037</v>
+        <v>3.311439803597068</v>
       </c>
       <c r="C21">
-        <v>1.733474343245121</v>
+        <v>0.5213718342920401</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0301635425525415</v>
+        <v>0.07070730285500781</v>
       </c>
       <c r="F21">
-        <v>3.031856912876123</v>
+        <v>3.099652747216226</v>
       </c>
       <c r="G21">
-        <v>0.0007615479244552794</v>
+        <v>0.002526185816370847</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.488860512363317</v>
+        <v>1.737091931658441</v>
       </c>
       <c r="J21">
-        <v>0.04089813533842346</v>
+        <v>0.1117925917706124</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5161643305786043</v>
+        <v>0.4734120546589367</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6650523176336165</v>
+        <v>1.781978504294734</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.463557666761005</v>
+        <v>3.435681578158778</v>
       </c>
       <c r="C22">
-        <v>1.882473505731696</v>
+        <v>0.5559752665052429</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03165186337612802</v>
+        <v>0.07100170122226457</v>
       </c>
       <c r="F22">
-        <v>3.225154784147207</v>
+        <v>3.128401026995789</v>
       </c>
       <c r="G22">
-        <v>0.0007537423644232896</v>
+        <v>0.00252206532973383</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.573320958824098</v>
+        <v>1.746167122466531</v>
       </c>
       <c r="J22">
-        <v>0.03986479859694825</v>
+        <v>0.1109288117704352</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5523626703439817</v>
+        <v>0.4806717880974389</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6263266583298659</v>
+        <v>1.766279646994704</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.165505882783009</v>
+        <v>3.36924225322042</v>
       </c>
       <c r="C23">
-        <v>1.802485401237902</v>
+        <v>0.5374905944614738</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03084769475300631</v>
+        <v>0.07084478138264583</v>
       </c>
       <c r="F23">
-        <v>3.121122066510225</v>
+        <v>3.112919725704387</v>
       </c>
       <c r="G23">
-        <v>0.0007579062845512672</v>
+        <v>0.002524250220088191</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.527708775075382</v>
+        <v>1.74124145126018</v>
       </c>
       <c r="J23">
-        <v>0.04039231316217951</v>
+        <v>0.1113855046695704</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5329659623797767</v>
+        <v>0.4767815992557303</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6467567141754103</v>
+        <v>1.77460146039693</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.065491478682588</v>
+        <v>3.12044137950204</v>
       </c>
       <c r="C24">
-        <v>1.508935411803918</v>
+        <v>0.467831630323758</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02799760070462609</v>
+        <v>0.07024577973187229</v>
       </c>
       <c r="F24">
-        <v>2.744923107677778</v>
+        <v>3.057306243235445</v>
       </c>
       <c r="G24">
-        <v>0.0007737447538134871</v>
+        <v>0.002532839959689726</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.365942318186853</v>
+        <v>1.724383159163182</v>
       </c>
       <c r="J24">
-        <v>0.04288409445317498</v>
+        <v>0.1132098157378962</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4610851339050583</v>
+        <v>0.4623896919991495</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7291251778191707</v>
+        <v>1.807367530907484</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.927274929470229</v>
+        <v>2.858049187585209</v>
       </c>
       <c r="C25">
-        <v>1.20775803256322</v>
+        <v>0.3933979423747473</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02522898108064275</v>
+        <v>0.06958860258011201</v>
       </c>
       <c r="F25">
-        <v>2.370217024406728</v>
+        <v>3.003719357513447</v>
       </c>
       <c r="G25">
-        <v>0.0007911072464547551</v>
+        <v>0.002542783427391334</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.210636961712922</v>
+        <v>1.709999265556718</v>
       </c>
       <c r="J25">
-        <v>0.0464408014527109</v>
+        <v>0.1153779409122997</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3862956037822158</v>
+        <v>0.4475976168847637</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.827228287435581</v>
+        <v>1.845360375772287</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_132/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_132/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.669886159284943</v>
+        <v>4.119447625889279</v>
       </c>
       <c r="C2">
-        <v>0.339145502435855</v>
+        <v>0.9954119907370682</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06909409277560119</v>
+        <v>0.02336331767945143</v>
       </c>
       <c r="F2">
-        <v>2.969707982845279</v>
+        <v>2.115101331177456</v>
       </c>
       <c r="G2">
-        <v>0.002550694924269734</v>
+        <v>0.0008042448202306524</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.702634974721065</v>
+        <v>1.109160751039838</v>
       </c>
       <c r="J2">
-        <v>0.1171450160749998</v>
+        <v>0.04965578030106776</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4373352176423992</v>
+        <v>0.3330364437538975</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.875600795357766</v>
+        <v>0.9062536327318327</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.545457965338414</v>
+        <v>3.586104133477022</v>
       </c>
       <c r="C3">
-        <v>0.3026972707380367</v>
+        <v>0.8557627379733219</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0687517779157738</v>
+        <v>0.02217129794438888</v>
       </c>
       <c r="F3">
-        <v>2.950025442101591</v>
+        <v>1.95266625986838</v>
       </c>
       <c r="G3">
-        <v>0.002556428290683568</v>
+        <v>0.000813417038746822</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.699636447176772</v>
+        <v>1.046905932881103</v>
       </c>
       <c r="J3">
-        <v>0.1184482790675361</v>
+        <v>0.05214570145384201</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4307726991647485</v>
+        <v>0.2978354662720051</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.897502744192515</v>
+        <v>0.9635620983757995</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.470569751514063</v>
+        <v>3.264244794445119</v>
       </c>
       <c r="C4">
-        <v>0.2804674503497893</v>
+        <v>0.7716611422255824</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06853787779973564</v>
+        <v>0.02146539479645759</v>
       </c>
       <c r="F4">
-        <v>2.939592481797831</v>
+        <v>1.857369564511188</v>
       </c>
       <c r="G4">
-        <v>0.002560133084547107</v>
+        <v>0.0008191952654895338</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.698771679272426</v>
+        <v>1.01146154275736</v>
       </c>
       <c r="J4">
-        <v>0.1193003671316113</v>
+        <v>0.05381103865339298</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4269370500407206</v>
+        <v>0.2765948080296567</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.911642905357031</v>
+        <v>1.000461743283438</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.440430928523369</v>
+        <v>3.134316086076922</v>
       </c>
       <c r="C5">
-        <v>0.271445244896654</v>
+        <v>0.737741396832746</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06844975248008667</v>
+        <v>0.02118300835673415</v>
       </c>
       <c r="F5">
-        <v>2.935755375093819</v>
+        <v>1.819554793983855</v>
       </c>
       <c r="G5">
-        <v>0.002561689369569123</v>
+        <v>0.0008215886280813987</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.698663941636376</v>
+        <v>0.9976584420927423</v>
       </c>
       <c r="J5">
-        <v>0.1196606056208402</v>
+        <v>0.05452175454576391</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4254227990302297</v>
+        <v>0.2680237836818975</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.917578858329783</v>
+        <v>1.015910267143848</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.435449238199681</v>
+        <v>3.112810923760833</v>
       </c>
       <c r="C6">
-        <v>0.2699492983996095</v>
+        <v>0.7321286502866258</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06843506068993532</v>
+        <v>0.0211364026604175</v>
       </c>
       <c r="F6">
-        <v>2.935143225421413</v>
+        <v>1.813334569980682</v>
       </c>
       <c r="G6">
-        <v>0.002561950605810112</v>
+        <v>0.0008219884324856179</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.698660804325911</v>
+        <v>0.9954035367086718</v>
       </c>
       <c r="J6">
-        <v>0.1197212073069736</v>
+        <v>0.05464164433589502</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4251743091594022</v>
+        <v>0.2666054375909965</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.918575000891707</v>
+        <v>1.01849982292573</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.470161757007816</v>
+        <v>3.262487771121073</v>
       </c>
       <c r="C7">
-        <v>0.2803456267067475</v>
+        <v>0.7712023386789326</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06853669322588085</v>
+        <v>0.02146156664228194</v>
       </c>
       <c r="F7">
-        <v>2.939539056712775</v>
+        <v>1.856855575912761</v>
       </c>
       <c r="G7">
-        <v>0.002560153884400435</v>
+        <v>0.0008192273841798154</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.698769236792657</v>
+        <v>1.011272868349572</v>
       </c>
       <c r="J7">
-        <v>0.1193051728280174</v>
+        <v>0.0538204965419613</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4269164305884772</v>
+        <v>0.2764788846122315</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.911722256790153</v>
+        <v>1.000668444582232</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.626668846991436</v>
+        <v>3.934271411819907</v>
       </c>
       <c r="C8">
-        <v>0.3265465135016257</v>
+        <v>0.9468812958766648</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06897681924079446</v>
+        <v>0.02294610472378444</v>
       </c>
       <c r="F8">
-        <v>2.962577878627471</v>
+        <v>2.058111460260349</v>
       </c>
       <c r="G8">
-        <v>0.002552633597004084</v>
+        <v>0.0008073781768970223</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.701397925572792</v>
+        <v>1.087081481836833</v>
       </c>
       <c r="J8">
-        <v>0.1175835895918826</v>
+        <v>0.05048454188690243</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4350322919715239</v>
+        <v>0.3208160629392438</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.883008692522825</v>
+        <v>0.9256463712905649</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.94564744316051</v>
+        <v>5.30529716753</v>
       </c>
       <c r="C9">
-        <v>0.4183817117385615</v>
+        <v>1.307512319297928</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06981155157622609</v>
+        <v>0.0261294118172315</v>
       </c>
       <c r="F9">
-        <v>3.020920508378495</v>
+        <v>2.492845267168917</v>
       </c>
       <c r="G9">
-        <v>0.002539342745531204</v>
+        <v>0.0007852107286706363</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.714340542354776</v>
+        <v>1.260730755433244</v>
       </c>
       <c r="J9">
-        <v>0.1146209836763568</v>
+        <v>0.04514106082801206</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4524826425562338</v>
+        <v>0.4111737124926975</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.832209537410272</v>
+        <v>0.793055911935916</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.187496178796209</v>
+        <v>6.359660692967168</v>
       </c>
       <c r="C10">
-        <v>0.4866807572074094</v>
+        <v>1.587188300937555</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07040917988853623</v>
+        <v>0.02874220113127146</v>
       </c>
       <c r="F10">
-        <v>3.071894426536431</v>
+        <v>2.84427268829117</v>
       </c>
       <c r="G10">
-        <v>0.002530455465181472</v>
+        <v>0.0007694299450022602</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.728657823457695</v>
+        <v>1.408148071529098</v>
       </c>
       <c r="J10">
-        <v>0.1126988145636325</v>
+        <v>0.04213120860343267</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4662383686759171</v>
+        <v>0.4803503362983719</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.798264960438942</v>
+        <v>0.7059780256963393</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.299179155205707</v>
+        <v>6.853279524866537</v>
       </c>
       <c r="C11">
-        <v>0.5179481669991333</v>
+        <v>1.718902862979348</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07067802078017227</v>
+        <v>0.03002021508592412</v>
       </c>
       <c r="F11">
-        <v>3.096863914660076</v>
+        <v>3.013069686514712</v>
       </c>
       <c r="G11">
-        <v>0.002526600740376232</v>
+        <v>0.000762322914570876</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.736228758892025</v>
+        <v>1.480719431709716</v>
       </c>
       <c r="J11">
-        <v>0.1118801617174405</v>
+        <v>0.04101105700760499</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4726992095948219</v>
+        <v>0.5126089229745361</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.783560425042509</v>
+        <v>0.6689965726077034</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.341712076502688</v>
+        <v>7.042573880402642</v>
       </c>
       <c r="C12">
-        <v>0.529817998637327</v>
+        <v>1.769551328199725</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07077941847285896</v>
+        <v>0.03052009142030876</v>
       </c>
       <c r="F12">
-        <v>3.106576765719268</v>
+        <v>3.07846364157777</v>
       </c>
       <c r="G12">
-        <v>0.002525167941860531</v>
+        <v>0.0007596383377477355</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.739248863894943</v>
+        <v>1.509109735782417</v>
       </c>
       <c r="J12">
-        <v>0.1115782241431091</v>
+        <v>0.04062777250173255</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4751749572812258</v>
+        <v>0.524955377563515</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.778098599643577</v>
+        <v>0.6554092985454929</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.332541106062081</v>
+        <v>7.001694175653995</v>
       </c>
       <c r="C13">
-        <v>0.5272602865285876</v>
+        <v>1.758606780862351</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07075759829080708</v>
+        <v>0.03041167127452038</v>
       </c>
       <c r="F13">
-        <v>3.104473458203557</v>
+        <v>3.064311009545207</v>
       </c>
       <c r="G13">
-        <v>0.002525475326608974</v>
+        <v>0.0007602162743620203</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.738591602066634</v>
+        <v>1.502952904540621</v>
       </c>
       <c r="J13">
-        <v>0.1116428921218073</v>
+        <v>0.04070841081035326</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4746404645033806</v>
+        <v>0.5222902299792622</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.779270158747885</v>
+        <v>0.6583163502283256</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.302673524792681</v>
+        <v>6.868803104334347</v>
       </c>
       <c r="C14">
-        <v>0.5189241067977832</v>
+        <v>1.723053503765698</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07068637081305562</v>
+        <v>0.03006100162062442</v>
       </c>
       <c r="F14">
-        <v>3.09765782951186</v>
+        <v>3.018418959466601</v>
       </c>
       <c r="G14">
-        <v>0.002526482325062175</v>
+        <v>0.0007621019410418849</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.736474149337127</v>
+        <v>1.483036171135652</v>
       </c>
       <c r="J14">
-        <v>0.1118551591279733</v>
+        <v>0.04097867224834317</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4729023066528981</v>
+        <v>0.513621944346653</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.783108940921146</v>
+        <v>0.6678701455230538</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.284410203099355</v>
+        <v>6.787723922487601</v>
       </c>
       <c r="C15">
-        <v>0.5138218360210658</v>
+        <v>1.701380551202021</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07064268983254474</v>
+        <v>0.0298483799256104</v>
       </c>
       <c r="F15">
-        <v>3.093516626860151</v>
+        <v>2.990506822062855</v>
       </c>
       <c r="G15">
-        <v>0.002527102639581165</v>
+        <v>0.0007632577231487047</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.735197124576175</v>
+        <v>1.470958736663704</v>
       </c>
       <c r="J15">
-        <v>0.1119862311006266</v>
+        <v>0.0411497059449708</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4718414313479968</v>
+        <v>0.5083299572141158</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.785474184873856</v>
+        <v>0.673777638674899</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.18023106952171</v>
+        <v>6.327712631810584</v>
       </c>
       <c r="C16">
-        <v>0.4846414324914576</v>
+        <v>1.578681084062396</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07039155206869596</v>
+        <v>0.02866072881173176</v>
       </c>
       <c r="F16">
-        <v>3.070298565749255</v>
+        <v>2.833436774816903</v>
       </c>
       <c r="G16">
-        <v>0.002530711153316976</v>
+        <v>0.00076989555186972</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.728184420731779</v>
+        <v>1.40352585456553</v>
       </c>
       <c r="J16">
-        <v>0.1127534416926075</v>
+        <v>0.04220983994887462</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4658202225956245</v>
+        <v>0.4782594796977264</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.79924080801716</v>
+        <v>0.7084509550992308</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.116748062477086</v>
+        <v>6.049333413154955</v>
       </c>
       <c r="C17">
-        <v>0.4667916430051378</v>
+        <v>1.504642266804069</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07023673277131248</v>
+        <v>0.02795706064127756</v>
       </c>
       <c r="F17">
-        <v>3.056512171577509</v>
+        <v>2.739494049301356</v>
       </c>
       <c r="G17">
-        <v>0.002532972939032973</v>
+        <v>0.0007739835971183521</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.724154041476027</v>
+        <v>1.363647359279781</v>
       </c>
       <c r="J17">
-        <v>0.1132384161357542</v>
+        <v>0.04292734304369361</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4621784262900093</v>
+        <v>0.4600261006080189</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.80787529327614</v>
+        <v>0.7304214176029191</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.080390912804262</v>
+        <v>5.890508906662774</v>
       </c>
       <c r="C18">
-        <v>0.456543470639815</v>
+        <v>1.462471064716453</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07014739852522123</v>
+        <v>0.0275605357150619</v>
       </c>
       <c r="F18">
-        <v>3.048750176967189</v>
+        <v>2.686288519362023</v>
       </c>
       <c r="G18">
-        <v>0.002534291576238147</v>
+        <v>0.0007763419273579185</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.721935389229486</v>
+        <v>1.341221099962894</v>
       </c>
       <c r="J18">
-        <v>0.1135226050625491</v>
+        <v>0.04336312398226738</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4601028999283159</v>
+        <v>0.4496119278463766</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.812910963665445</v>
+        <v>0.7433032581156667</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.068107854099935</v>
+        <v>5.83694534447028</v>
       </c>
       <c r="C19">
-        <v>0.4530767692308473</v>
+        <v>1.448260186780544</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07011710146490868</v>
+        <v>0.02742760415960399</v>
       </c>
       <c r="F19">
-        <v>3.046150840422143</v>
+        <v>2.668410847067804</v>
       </c>
       <c r="G19">
-        <v>0.002534741092222197</v>
+        <v>0.0007771417208613658</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.721201252505665</v>
+        <v>1.333712388246624</v>
       </c>
       <c r="J19">
-        <v>0.1136197257379337</v>
+        <v>0.04351449653884387</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4594034514823591</v>
+        <v>0.4460979468752129</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.81462785034207</v>
+        <v>0.7477058230917208</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.123489718276346</v>
+        <v>6.078831199506169</v>
       </c>
       <c r="C20">
-        <v>0.4686898553793526</v>
+        <v>1.512480129857579</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07025324297621172</v>
+        <v>0.02803109756574251</v>
       </c>
       <c r="F20">
-        <v>3.057962403995987</v>
+        <v>2.749407439983941</v>
       </c>
       <c r="G20">
-        <v>0.002532730335483624</v>
+        <v>0.0007735477183656702</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.72457277538868</v>
+        <v>1.367838833991968</v>
       </c>
       <c r="J20">
-        <v>0.1131862466282563</v>
+        <v>0.04284853951186207</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4625641214429521</v>
+        <v>0.4619593825891144</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.806948957414427</v>
+        <v>0.7280570050053612</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.311439803597068</v>
+        <v>6.907768936691753</v>
       </c>
       <c r="C21">
-        <v>0.5213718342920401</v>
+        <v>1.733474343245121</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07070730285500781</v>
+        <v>0.03016354255250775</v>
       </c>
       <c r="F21">
-        <v>3.099652747216226</v>
+        <v>3.031856912876094</v>
       </c>
       <c r="G21">
-        <v>0.002526185816370847</v>
+        <v>0.000761547924454011</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.737091931658441</v>
+        <v>1.488860512363331</v>
       </c>
       <c r="J21">
-        <v>0.1117925917706124</v>
+        <v>0.04089813533848385</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4734120546589367</v>
+        <v>0.5161643305785617</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.781978504294734</v>
+        <v>0.6650523176336094</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.435681578158778</v>
+        <v>7.46355766676129</v>
       </c>
       <c r="C22">
-        <v>0.5559752665052429</v>
+        <v>1.882473505731639</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07100170122226457</v>
+        <v>0.03165186337606452</v>
       </c>
       <c r="F22">
-        <v>3.128401026995789</v>
+        <v>3.225154784147207</v>
       </c>
       <c r="G22">
-        <v>0.00252206532973383</v>
+        <v>0.0007537423643660945</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.746167122466531</v>
+        <v>1.573320958824112</v>
       </c>
       <c r="J22">
-        <v>0.1109288117704352</v>
+        <v>0.03986479859693048</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4806717880974389</v>
+        <v>0.5523626703438254</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.766279646994704</v>
+        <v>0.6263266583298019</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.36924225322042</v>
+        <v>7.165505882783179</v>
       </c>
       <c r="C23">
-        <v>0.5374905944614738</v>
+        <v>1.80248540123813</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07084478138264583</v>
+        <v>0.03084769475304006</v>
       </c>
       <c r="F23">
-        <v>3.112919725704387</v>
+        <v>3.121122066510225</v>
       </c>
       <c r="G23">
-        <v>0.002524250220088191</v>
+        <v>0.0007579062844301582</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.74124145126018</v>
+        <v>1.527708775075368</v>
       </c>
       <c r="J23">
-        <v>0.1113855046695704</v>
+        <v>0.04039231316218661</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4767815992557303</v>
+        <v>0.5329659623798904</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.77460146039693</v>
+        <v>0.6467567141754316</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.12044137950204</v>
+        <v>6.065491478682816</v>
       </c>
       <c r="C24">
-        <v>0.467831630323758</v>
+        <v>1.508935411803918</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07024577973187229</v>
+        <v>0.02799760070462742</v>
       </c>
       <c r="F24">
-        <v>3.057306243235445</v>
+        <v>2.744923107677778</v>
       </c>
       <c r="G24">
-        <v>0.002532839959689726</v>
+        <v>0.0007737447538182773</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.724383159163182</v>
+        <v>1.365942318186868</v>
       </c>
       <c r="J24">
-        <v>0.1132098157378962</v>
+        <v>0.04288409445323538</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4623896919991495</v>
+        <v>0.4610851339051436</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.807367530907484</v>
+        <v>0.7291251778191707</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.858049187585209</v>
+        <v>4.927274929470229</v>
       </c>
       <c r="C25">
-        <v>0.3933979423747473</v>
+        <v>1.207758032562822</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06958860258011201</v>
+        <v>0.02522898108063698</v>
       </c>
       <c r="F25">
-        <v>3.003719357513447</v>
+        <v>2.370217024406728</v>
       </c>
       <c r="G25">
-        <v>0.002542783427391334</v>
+        <v>0.0007911072465651244</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.709999265556718</v>
+        <v>1.210636961712908</v>
       </c>
       <c r="J25">
-        <v>0.1153779409122997</v>
+        <v>0.04644080145268425</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4475976168847637</v>
+        <v>0.3862956037821874</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.845360375772287</v>
+        <v>0.8272282874355597</v>
       </c>
       <c r="O25">
         <v>0</v>
